--- a/OUTPUT-FILES/NORMS/TODC_adult_10.28.21_for norms/iws_sum-adult-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_adult_10.28.21_for norms/iws_sum-adult-raw-ss-lookup-tabbed-age.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -384,7 +384,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -392,7 +392,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -400,7 +400,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -408,321 +408,329 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -733,7 +741,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -753,7 +761,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -761,7 +769,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -769,7 +777,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -777,7 +785,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -785,7 +793,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -793,7 +801,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -801,7 +809,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -809,297 +817,305 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -1110,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1130,7 +1146,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1138,7 +1154,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1146,7 +1162,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -1154,7 +1170,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -1162,7 +1178,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -1170,7 +1186,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -1178,7 +1194,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -1186,7 +1202,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>40</v>
@@ -1194,289 +1210,297 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -1487,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1507,7 +1531,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -1515,7 +1539,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>40</v>
@@ -1523,7 +1547,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>40</v>
@@ -1531,7 +1555,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -1539,7 +1563,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -1547,7 +1571,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -1555,55 +1579,55 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>49</v>
@@ -1611,15 +1635,15 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>52</v>
@@ -1627,7 +1651,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>54</v>
@@ -1635,15 +1659,15 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>57</v>
@@ -1651,151 +1675,151 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>101</v>
@@ -1803,7 +1827,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>104</v>
@@ -1811,7 +1835,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>108</v>
@@ -1819,31 +1843,31 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>125</v>
@@ -1851,9 +1875,17 @@
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>130</v>
       </c>
     </row>
@@ -1864,7 +1896,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1884,175 +1916,175 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>70</v>
@@ -2060,7 +2092,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>72</v>
@@ -2068,7 +2100,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>74</v>
@@ -2076,47 +2108,47 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>86</v>
@@ -2124,7 +2156,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>88</v>
@@ -2132,15 +2164,15 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>93</v>
@@ -2148,90 +2180,98 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>127</v>
+      <c r="B46">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2281,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2261,143 +2301,143 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>74</v>
@@ -2405,7 +2445,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>75</v>
@@ -2413,202 +2453,210 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>120</v>
+      <c r="B46">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
